--- a/Scripts_inesdattatreya/fig_output/mean_scores_per_class.xlsx
+++ b/Scripts_inesdattatreya/fig_output/mean_scores_per_class.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tud365-my.sharepoint.com/personal/idattatreya_tudelft_nl/Documents/BEP/R data analysis/BranchInes/Scripts_inesdattatreya/fig_output/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tud365-my.sharepoint.com/personal/idattatreya_tudelft_nl/Documents/BEP/BranchInes/Scripts_inesdattatreya/fig_output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_EF76FDCE8F79A8D366075C52F36D12F0F132C7AD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21AA228C-01BE-4230-87E0-0EA0A3E4F0B6}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="11_EF76FDCE8F79A8D366075C52F36D12F0F132C7AD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F68FBDAC-DEAE-4AD4-B1EE-55BB21A5279D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="18426" windowHeight="11746" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,36 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t>Q_Experiencecode</t>
-  </si>
-  <si>
-    <t>Q_Info_Governmentcode</t>
-  </si>
-  <si>
-    <t>Q_Info_WeatherForecastcode</t>
-  </si>
-  <si>
-    <t>Q_Info_Scientificcode</t>
-  </si>
-  <si>
-    <t>Q_Info_GeneralMediacode</t>
-  </si>
-  <si>
-    <t>Q_Info_SocialMediacode</t>
-  </si>
-  <si>
-    <t>Q_FloodFuturecode</t>
-  </si>
-  <si>
-    <t>Q_ClimateChangecode</t>
-  </si>
-  <si>
-    <t>Q_Threatcode</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -59,6 +29,36 @@
   </si>
   <si>
     <t>3</t>
+  </si>
+  <si>
+    <t>Experience</t>
+  </si>
+  <si>
+    <t>Government</t>
+  </si>
+  <si>
+    <t>WeatherForecast</t>
+  </si>
+  <si>
+    <t>Scientific</t>
+  </si>
+  <si>
+    <t>GeneralMedia</t>
+  </si>
+  <si>
+    <t>SocialMedia</t>
+  </si>
+  <si>
+    <t>FloodFuture</t>
+  </si>
+  <si>
+    <t>ClimateChange</t>
+  </si>
+  <si>
+    <t>Threat</t>
+  </si>
+  <si>
+    <t>Class</t>
   </si>
 </sst>
 </file>
@@ -90,7 +90,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -98,18 +98,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -414,53 +450,58 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" customWidth="1"/>
-    <col min="2" max="2" width="20.21875" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="1" max="1" width="9.87890625" customWidth="1"/>
+    <col min="2" max="2" width="13.5859375" customWidth="1"/>
+    <col min="3" max="3" width="14.17578125" customWidth="1"/>
+    <col min="4" max="4" width="15.1171875" customWidth="1"/>
+    <col min="5" max="5" width="10.76171875" customWidth="1"/>
+    <col min="6" max="6" width="11.5859375" customWidth="1"/>
+    <col min="7" max="7" width="10.29296875" customWidth="1"/>
+    <col min="8" max="8" width="10.9375" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="13.9375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A2" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>10</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -490,9 +531,9 @@
         <v>2.1052631578947372</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>11</v>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="B3">
         <v>1.3875</v>
@@ -522,9 +563,9 @@
         <v>2.4750000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>12</v>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="B4">
         <v>1.8301886792452831</v>
